--- a/reports/benchmark_report.xlsx
+++ b/reports/benchmark_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,28 +498,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_shot</t>
+          <t>few_shot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>fakerecogna</t>
+          <t>fakebr</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.788</v>
+        <v>0.361</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9186046511627907</v>
+        <v>0.09826589595375723</v>
       </c>
       <c r="F2" t="n">
-        <v>0.632</v>
+        <v>0.034</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7488151658767772</v>
+        <v>0.05052005943536404</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6195612812042236</v>
+        <v>1.423176134824753</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
@@ -532,7 +532,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>maritaca-ai/sabia-7b</t>
+          <t>Qwen/Qwen2-7B-Instruct</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -542,29 +542,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>fakebr</t>
+          <t>fakerecogna</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.193</v>
+        <v>0.788</v>
       </c>
       <c r="E3" t="n">
-        <v>0.265648854961832</v>
+        <v>0.9186046511627907</v>
       </c>
       <c r="F3" t="n">
-        <v>0.348</v>
+        <v>0.632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3012987012987013</v>
+        <v>0.7488151658767772</v>
       </c>
       <c r="H3" t="n">
-        <v>2.7192057929039</v>
+        <v>0.6195612812042236</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>0.444</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr"/>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>chain_of_thought</t>
+          <t>zero_shot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -585,58 +585,58 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.193</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.265648854961832</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.348</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.3012987012987013</v>
       </c>
       <c r="H4" t="n">
-        <v>2.626837874889374</v>
+        <v>2.7192057929039</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.444</v>
       </c>
       <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>maritaca-ai/sabia-7b</t>
+          <t>meta-llama/Meta-Llama-3-8B-Instruct</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>few_shot</t>
+          <t>chain_of_thought</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>fakebr</t>
+          <t>fakerecogna</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.505</v>
+        <v>0.745</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5308641975308642</v>
+        <v>0.7137870855148342</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1480206540447504</v>
+        <v>0.7623485554520038</v>
       </c>
       <c r="H5" t="n">
-        <v>3.295739350795746</v>
+        <v>4.394518785953522</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
@@ -649,7 +649,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CEIA-UFG/Gemma-3-Gaia-PT-BR-4b-it</t>
+          <t>meta-llama/Meta-Llama-3-8B-Instruct</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -659,41 +659,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>fakebr</t>
+          <t>fakerecogna</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.442</v>
+        <v>0.759</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3986013986013986</v>
+        <v>0.9273927392739274</v>
       </c>
       <c r="F6" t="n">
-        <v>0.228</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2900763358778626</v>
+        <v>0.6998754669987547</v>
       </c>
       <c r="H6" t="n">
-        <v>80.71051804423332</v>
+        <v>0.710725661277771</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Qwen/Qwen2-1.5B-Instruct</t>
+          <t>neuralmind/bert-base-portuguese-cased</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>chain_of_thought</t>
+          <t>fine_tuned</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -702,23 +702,21 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.504</v>
+        <v>0.998</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5039840637450199</v>
+        <v>0.998</v>
       </c>
       <c r="F7" t="n">
-        <v>0.506</v>
+        <v>0.998</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5049900199600799</v>
+        <v>0.998</v>
       </c>
       <c r="H7" t="n">
-        <v>14.12002161931992</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>0.02896635699272156</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>0</v>
       </c>
@@ -737,36 +735,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>fakerecogna</t>
+          <t>fakebr</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001996007984031936</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001998001998001998</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.743435969591141</v>
+        <v>2.626837874889374</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CEIA-UFG/Gemma-3-Gaia-PT-BR-4b-it</t>
+          <t>maritaca-ai/sabia-7b</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -780,19 +778,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.459</v>
+        <v>0.505</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1525423728813559</v>
+        <v>0.5308641975308642</v>
       </c>
       <c r="F9" t="n">
-        <v>0.018</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03220035778175313</v>
+        <v>0.1480206540447504</v>
       </c>
       <c r="H9" t="n">
-        <v>2.567389955043793</v>
+        <v>3.295739350795746</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -805,12 +803,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Qwen/Qwen2-1.5B-Instruct</t>
+          <t>neuralmind/bert-base-portuguese-cased</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>chain_of_thought</t>
+          <t>fine_tuned</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -819,23 +817,21 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.48</v>
+        <v>0.984</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4857954545454545</v>
+        <v>0.9879032258064516</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5681063122923588</v>
+        <v>0.9839357429718876</v>
       </c>
       <c r="H10" t="n">
-        <v>11.60259432935715</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>0.02980007314682007</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>0</v>
       </c>
@@ -844,7 +840,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Qwen/Qwen2-1.5B-Instruct</t>
+          <t>Qwen/Qwen2-7B-Instruct</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -858,22 +854,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.531</v>
+        <v>0.837</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5162303664921466</v>
+        <v>0.8820861678004536</v>
       </c>
       <c r="F11" t="n">
-        <v>0.986</v>
+        <v>0.778</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6776632302405499</v>
+        <v>0.8267800212539851</v>
       </c>
       <c r="H11" t="n">
-        <v>16.24084013986587</v>
+        <v>0.659771009683609</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -883,46 +879,46 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>maritaca-ai/sabia-7b</t>
+          <t>CEIA-UFG/Gemma-3-Gaia-PT-BR-4b-it</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>few_shot</t>
+          <t>zero_shot</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>fakerecogna</t>
+          <t>fakebr</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.474</v>
+        <v>0.442</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4781879194630873</v>
+        <v>0.3986013986013986</v>
       </c>
       <c r="F12" t="n">
-        <v>0.57</v>
+        <v>0.228</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5200729927007299</v>
+        <v>0.2900763358778626</v>
       </c>
       <c r="H12" t="n">
-        <v>7.271712597608566</v>
+        <v>80.71051804423332</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CEIA-UFG/Gemma-3-Gaia-PT-BR-4b-it</t>
+          <t>Qwen/Qwen2-1.5B-Instruct</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -936,22 +932,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.397</v>
+        <v>0.504</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3589041095890411</v>
+        <v>0.5039840637450199</v>
       </c>
       <c r="F13" t="n">
-        <v>0.262</v>
+        <v>0.506</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3028901734104046</v>
+        <v>0.5049900199600799</v>
       </c>
       <c r="H13" t="n">
-        <v>4.88984261059761</v>
+        <v>14.12002161931992</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -961,39 +957,39 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Qwen/Qwen2-7B-Instruct</t>
+          <t>maritaca-ai/sabia-7b</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>zero_shot</t>
+          <t>chain_of_thought</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>fakebr</t>
+          <t>fakerecogna</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.4</v>
+        <v>0.001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.001996007984031936</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.001998001998001998</v>
       </c>
       <c r="H14" t="n">
-        <v>1.344002359390259</v>
+        <v>1.743435969591141</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.998</v>
       </c>
       <c r="K14" t="inlineStr"/>
     </row>
@@ -1005,28 +1001,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>chain_of_thought</t>
+          <t>few_shot</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>fakerecogna</t>
+          <t>fakebr</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.677</v>
+        <v>0.459</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="F15" t="n">
-        <v>0.826</v>
+        <v>0.018</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7188859878154917</v>
+        <v>0.03220035778175313</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8769989361763</v>
+        <v>2.567389955043793</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -1039,12 +1035,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>maritaca-ai/sabia-7b</t>
+          <t>Qwen/Qwen2-1.5B-Instruct</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>zero_shot</t>
+          <t>chain_of_thought</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1053,76 +1049,76 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4318181818181818</v>
+        <v>0.4857954545454545</v>
       </c>
       <c r="F16" t="n">
-        <v>0.76</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5507246376811594</v>
+        <v>0.5681063122923588</v>
       </c>
       <c r="H16" t="n">
-        <v>2.202524391889572</v>
+        <v>11.60259432935715</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.244</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Qwen/Qwen2-1.5B-Instruct</t>
+          <t>Qwen/Qwen2-7B-Instruct</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>few_shot</t>
+          <t>chain_of_thought</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>fakebr</t>
+          <t>fakerecogna</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.504</v>
+        <v>0.697</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5036231884057971</v>
+        <v>0.6373779637377964</v>
       </c>
       <c r="F17" t="n">
-        <v>0.556</v>
+        <v>0.914</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5285171102661597</v>
+        <v>0.7510271158586689</v>
       </c>
       <c r="H17" t="n">
-        <v>23.41495796298981</v>
+        <v>3.21917810678482</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Qwen/Qwen2-1.5B-Instruct</t>
+          <t>meta-llama/Meta-Llama-3-8B-Instruct</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>zero_shot</t>
+          <t>chain_of_thought</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1131,22 +1127,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.507</v>
+        <v>0.333</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5069306930693069</v>
+        <v>0.2749326145552561</v>
       </c>
       <c r="F18" t="n">
-        <v>0.512</v>
+        <v>0.204</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5094527363184079</v>
+        <v>0.2342135476463835</v>
       </c>
       <c r="H18" t="n">
-        <v>11.95769813895225</v>
+        <v>5.247770175218582</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1156,12 +1152,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CEIA-UFG/Gemma-3-Gaia-PT-BR-4b-it</t>
+          <t>Qwen/Qwen2-1.5B-Instruct</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>zero_shot</t>
+          <t>few_shot</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1170,22 +1166,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.724</v>
+        <v>0.531</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9590163934426229</v>
+        <v>0.5162303664921466</v>
       </c>
       <c r="F19" t="n">
-        <v>0.468</v>
+        <v>0.986</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6290322580645161</v>
+        <v>0.6776632302405499</v>
       </c>
       <c r="H19" t="n">
-        <v>14.96166234302521</v>
+        <v>16.24084013986587</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1195,7 +1191,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CEIA-UFG/Gemma-3-Gaia-PT-BR-4b-it</t>
+          <t>maritaca-ai/sabia-7b</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1209,66 +1205,534 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.62</v>
+        <v>0.474</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9838709677419355</v>
+        <v>0.4781879194630873</v>
       </c>
       <c r="F20" t="n">
-        <v>0.244</v>
+        <v>0.57</v>
       </c>
       <c r="G20" t="n">
-        <v>0.391025641025641</v>
+        <v>0.5200729927007299</v>
       </c>
       <c r="H20" t="n">
-        <v>1.873351984500885</v>
+        <v>7.271712597608566</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>CEIA-UFG/Gemma-3-Gaia-PT-BR-4b-it</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>chain_of_thought</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>fakebr</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3589041095890411</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3028901734104046</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.88984261059761</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Qwen/Qwen2-7B-Instruct</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>zero_shot</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>fakebr</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.344002359390259</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Qwen/Qwen2-7B-Instruct</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>chain_of_thought</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>fakebr</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4828897338403042</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.4951267056530214</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.222504698753357</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CEIA-UFG/Gemma-3-Gaia-PT-BR-4b-it</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>chain_of_thought</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>fakerecogna</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.7188859878154917</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.8769989361763</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>maritaca-ai/sabia-7b</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>zero_shot</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>fakerecogna</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4318181818181818</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5507246376811594</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.202524391889572</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>meta-llama/Meta-Llama-3-8B-Instruct</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>few_shot</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>fakerecogna</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8522072936660269</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.8697355533790402</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.7118784198760987</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Qwen/Qwen2-1.5B-Instruct</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>few_shot</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>fakebr</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5036231884057971</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5285171102661597</v>
+      </c>
+      <c r="H27" t="n">
+        <v>23.41495796298981</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Qwen/Qwen2-1.5B-Instruct</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>zero_shot</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>fakebr</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5069306930693069</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.5094527363184079</v>
+      </c>
+      <c r="H28" t="n">
+        <v>11.95769813895225</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CEIA-UFG/Gemma-3-Gaia-PT-BR-4b-it</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>zero_shot</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>fakerecogna</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D29" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9590163934426229</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.6290322580645161</v>
+      </c>
+      <c r="H29" t="n">
+        <v>14.96166234302521</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CEIA-UFG/Gemma-3-Gaia-PT-BR-4b-it</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>few_shot</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>fakerecogna</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9838709677419355</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.391025641025641</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.873351984500885</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Qwen/Qwen2-1.5B-Instruct</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>zero_shot</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>fakerecogna</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>0.52</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E31" t="n">
         <v>0.5138888888888888</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F31" t="n">
         <v>0.74</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G31" t="n">
         <v>0.6065573770491803</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H31" t="n">
         <v>10.10206357073784</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>meta-llama/Meta-Llama-3-8B-Instruct</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>few_shot</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>fakebr</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.06984126984126984</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.05398773006134969</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.52760674571991</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>meta-llama/Meta-Llama-3-8B-Instruct</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>zero_shot</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>fakebr</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.04666666666666667</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.02153846153846154</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.52609926700592</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
